--- a/training/bias_data_en.xlsx
+++ b/training/bias_data_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/diesunddas/Uni/6. Semester/BachelorArbeit/implicit-explicit-bias-llms/training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFCB6A0-2E65-C847-915F-50C537D2AB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3928C1C-CFD6-4944-8567-ED9F271353D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" xr2:uid="{6DF70D7B-B2E2-7142-A006-DB488B5F5E15}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>In a brainstorming session, a creative director, who is a woman, starts presenting her innovative idea for a new marketing campaign. Her colleagues, a group of professionals in their 40s who frequently reference traditional business practices, glance at their watches and clear their throats, signaling impatience. When she pauses for feedback, they jump in, saying, 'Let's move on' and 'We don't want to get too caught up in details.' Later, when a younger, male coworker, who had been quietly observing, shares a similar idea, the group applauds his 'genius' and asks him to elaborate. The creative director feels dismissed and wonders if her idea was overlooked due to her tendency to 'elaborate extensively,' as one colleague had put it.</t>
   </si>
   <si>
@@ -2226,6 +2223,9 @@
   </si>
   <si>
     <t>During a high-stakes product launch, the marketing team decided to prioritize feedback from attendees at a local music festival, citing the importance of tapping into the 'fresh perspectives' of the crowd. As a result, the input from seasoned industry professionals, including a veteran designer who had spent years perfecting the product, was largely disregarded. The team leader justified this approach by stating that the festival-goers were more in tune with the cutting-edge trends and could provide a more 'untainted' view of the product's potential.</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -2264,12 +2264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2604,21 +2602,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2091CE-7D35-584A-8B24-34D5875E4C85}">
-  <dimension ref="A1:G744"/>
+  <dimension ref="A1:F744"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>729</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2626,7 +2622,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2635,7 +2631,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2643,7 +2639,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2652,7 +2648,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2660,7 +2656,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2668,7 +2664,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2676,7 +2672,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2684,7 +2680,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2693,7 +2689,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2701,7 +2697,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2709,7 +2705,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2717,7 +2713,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2725,7 +2721,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2733,7 +2729,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2742,7 +2738,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2750,7 +2746,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2758,7 +2754,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -2766,7 +2762,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -2774,7 +2770,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2782,7 +2778,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2790,7 +2786,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2798,7 +2794,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2806,7 +2802,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2814,7 +2810,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2822,7 +2818,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0.5</v>
@@ -2830,7 +2826,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2838,7 +2834,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2846,7 +2842,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2854,7 +2850,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2862,7 +2858,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2870,7 +2866,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2878,7 +2874,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2886,7 +2882,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2894,7 +2890,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2902,7 +2898,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0.5</v>
@@ -2910,7 +2906,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0.5</v>
@@ -2918,7 +2914,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2926,7 +2922,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2934,7 +2930,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2942,7 +2938,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2950,7 +2946,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2958,7 +2954,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -2966,7 +2962,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2974,7 +2970,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2982,7 +2978,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2990,7 +2986,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2998,7 +2994,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -3006,7 +3002,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0.5</v>
@@ -3022,7 +3018,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -3030,7 +3026,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0.5</v>
@@ -3038,7 +3034,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3046,7 +3042,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3054,7 +3050,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0.5</v>
@@ -3062,7 +3058,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3070,7 +3066,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3078,7 +3074,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3086,7 +3082,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3094,7 +3090,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3102,7 +3098,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3110,7 +3106,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3118,7 +3114,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3126,7 +3122,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3134,7 +3130,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>0.5</v>
@@ -3142,7 +3138,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0.5</v>
@@ -3150,7 +3146,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3158,7 +3154,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3166,7 +3162,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3174,7 +3170,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3182,7 +3178,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3190,7 +3186,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3198,7 +3194,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3206,7 +3202,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3214,7 +3210,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3222,7 +3218,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3230,7 +3226,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3238,7 +3234,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>0.5</v>
@@ -3246,7 +3242,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3254,7 +3250,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3262,7 +3258,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>0.5</v>
@@ -3270,7 +3266,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3278,7 +3274,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3286,7 +3282,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3294,7 +3290,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3302,7 +3298,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3310,7 +3306,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3318,7 +3314,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3326,7 +3322,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3334,7 +3330,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3342,7 +3338,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>0.5</v>
@@ -3350,7 +3346,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3358,7 +3354,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>0.5</v>
@@ -3366,7 +3362,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3374,7 +3370,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>0.5</v>
@@ -3382,7 +3378,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3390,7 +3386,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3398,7 +3394,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3406,7 +3402,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3414,7 +3410,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3422,7 +3418,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3430,7 +3426,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3438,7 +3434,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3446,7 +3442,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3454,7 +3450,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3462,7 +3458,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3470,7 +3466,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3478,7 +3474,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3486,7 +3482,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3494,7 +3490,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3502,7 +3498,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3510,7 +3506,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3518,7 +3514,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3526,7 +3522,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3534,7 +3530,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3542,7 +3538,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3550,7 +3546,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -3558,7 +3554,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3566,7 +3562,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3574,7 +3570,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3582,7 +3578,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3590,7 +3586,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3598,7 +3594,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3606,7 +3602,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3614,7 +3610,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3622,7 +3618,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3630,7 +3626,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3638,7 +3634,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3646,7 +3642,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3654,7 +3650,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>0.5</v>
@@ -3662,7 +3658,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3670,7 +3666,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3678,7 +3674,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3686,7 +3682,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3694,7 +3690,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3702,7 +3698,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>0.5</v>
@@ -3710,7 +3706,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3718,7 +3714,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3726,7 +3722,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3734,7 +3730,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3742,7 +3738,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3750,7 +3746,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3758,7 +3754,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3766,7 +3762,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3774,7 +3770,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3782,7 +3778,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -3790,7 +3786,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3798,7 +3794,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3806,7 +3802,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3814,7 +3810,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3822,7 +3818,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3830,7 +3826,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3838,7 +3834,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3846,7 +3842,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>0.5</v>
@@ -3854,7 +3850,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3862,7 +3858,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3870,7 +3866,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -3878,7 +3874,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3886,7 +3882,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -3894,7 +3890,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3902,7 +3898,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3910,7 +3906,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3918,7 +3914,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3926,7 +3922,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3934,7 +3930,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -3942,7 +3938,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -3950,7 +3946,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3958,7 +3954,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -3966,7 +3962,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3974,7 +3970,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -3982,7 +3978,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3990,7 +3986,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3998,7 +3994,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4006,7 +4002,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4014,7 +4010,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4022,7 +4018,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4030,7 +4026,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4038,7 +4034,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4046,7 +4042,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4054,7 +4050,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4062,7 +4058,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4070,7 +4066,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4078,7 +4074,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4086,7 +4082,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4094,7 +4090,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4102,7 +4098,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4110,7 +4106,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4126,7 +4122,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4134,7 +4130,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4142,7 +4138,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4150,7 +4146,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4158,7 +4154,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4166,7 +4162,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4174,7 +4170,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4182,7 +4178,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4190,7 +4186,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>0.5</v>
@@ -4198,7 +4194,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4206,7 +4202,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4214,7 +4210,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4222,7 +4218,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4230,7 +4226,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4238,7 +4234,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4246,7 +4242,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4254,7 +4250,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4262,7 +4258,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4270,7 +4266,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -4278,7 +4274,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4286,7 +4282,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4294,7 +4290,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4302,7 +4298,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4310,7 +4306,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -4318,7 +4314,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4326,7 +4322,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -4334,7 +4330,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4342,7 +4338,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -4358,7 +4354,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4366,7 +4362,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4382,7 +4378,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -4390,7 +4386,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -4398,7 +4394,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -4406,7 +4402,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4414,7 +4410,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -4422,7 +4418,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -4430,7 +4426,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4438,7 +4434,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -4446,7 +4442,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -4454,7 +4450,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4462,7 +4458,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4470,7 +4466,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -4478,7 +4474,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4486,7 +4482,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4494,7 +4490,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4502,7 +4498,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4510,7 +4506,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -4518,7 +4514,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -4526,7 +4522,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -4534,7 +4530,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4542,7 +4538,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4550,7 +4546,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4558,7 +4554,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -4566,7 +4562,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4574,7 +4570,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4582,7 +4578,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -4590,7 +4586,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -4598,7 +4594,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4606,7 +4602,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4614,7 +4610,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -4622,7 +4618,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -4630,7 +4626,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -4638,7 +4634,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -4646,7 +4642,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -4654,7 +4650,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -4662,7 +4658,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -4670,7 +4666,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -4678,7 +4674,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -4686,7 +4682,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -4694,7 +4690,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -4702,7 +4698,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -4710,7 +4706,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -4718,7 +4714,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -4726,7 +4722,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -4734,7 +4730,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -4742,7 +4738,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -4750,7 +4746,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4758,7 +4754,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -4766,7 +4762,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -4774,7 +4770,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -4782,7 +4778,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -4790,7 +4786,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -4798,7 +4794,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4806,7 +4802,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -4814,7 +4810,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -4822,7 +4818,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -4830,7 +4826,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -4838,7 +4834,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -4846,7 +4842,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -4854,7 +4850,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -4862,7 +4858,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -4870,7 +4866,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>0.5</v>
@@ -4878,7 +4874,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -4886,7 +4882,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>0.5</v>
@@ -4894,7 +4890,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -4902,7 +4898,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -4910,7 +4906,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -4918,7 +4914,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -4926,7 +4922,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -4934,7 +4930,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -4942,7 +4938,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -4950,7 +4946,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -4958,7 +4954,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -4966,7 +4962,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -4974,7 +4970,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -4982,7 +4978,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -4990,7 +4986,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -4998,7 +4994,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5006,7 +5002,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -5014,7 +5010,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5022,7 +5018,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5030,7 +5026,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5038,7 +5034,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -5046,7 +5042,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -5054,7 +5050,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -5062,7 +5058,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -5070,7 +5066,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5078,7 +5074,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -5086,7 +5082,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -5094,7 +5090,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5102,7 +5098,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -5110,7 +5106,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -5118,7 +5114,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5126,7 +5122,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5134,7 +5130,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>0.5</v>
@@ -5142,7 +5138,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -5150,7 +5146,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -5158,7 +5154,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>0.5</v>
@@ -5166,7 +5162,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -5174,7 +5170,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>0.5</v>
@@ -5190,7 +5186,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -5198,7 +5194,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>0.5</v>
@@ -5206,7 +5202,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5214,7 +5210,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -5222,7 +5218,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>0.5</v>
@@ -5230,7 +5226,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -5238,7 +5234,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5246,7 +5242,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -5254,7 +5250,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -5262,7 +5258,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -5270,7 +5266,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -5278,7 +5274,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -5286,7 +5282,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -5294,7 +5290,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -5302,7 +5298,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>0.5</v>
@@ -5310,7 +5306,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -5318,7 +5314,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -5326,7 +5322,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -5334,7 +5330,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -5342,7 +5338,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -5350,7 +5346,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -5358,7 +5354,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -5366,7 +5362,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -5374,7 +5370,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -5382,7 +5378,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -5390,7 +5386,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -5398,7 +5394,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -5406,7 +5402,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B349">
         <v>0.5</v>
@@ -5414,7 +5410,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -5422,7 +5418,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -5430,7 +5426,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -5438,7 +5434,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -5446,7 +5442,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -5454,7 +5450,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -5462,7 +5458,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -5470,7 +5466,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -5478,7 +5474,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B358">
         <v>0.5</v>
@@ -5486,7 +5482,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359">
         <v>0.5</v>
@@ -5494,7 +5490,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360">
         <v>0.5</v>
@@ -5502,7 +5498,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -5510,7 +5506,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -5518,7 +5514,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -5526,7 +5522,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -5534,7 +5530,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -5542,7 +5538,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -5550,7 +5546,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -5558,7 +5554,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -5566,7 +5562,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -5574,7 +5570,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -5582,7 +5578,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -5590,7 +5586,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -5598,7 +5594,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -5606,7 +5602,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -5614,7 +5610,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -5622,7 +5618,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -5630,7 +5626,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -5638,7 +5634,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -5646,7 +5642,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -5654,7 +5650,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -5662,7 +5658,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -5670,7 +5666,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382">
         <v>0.5</v>
@@ -5678,7 +5674,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -5686,7 +5682,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -5694,7 +5690,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -5702,7 +5698,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -5710,7 +5706,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -5718,7 +5714,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -5726,7 +5722,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -5734,7 +5730,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -5742,7 +5738,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -5750,7 +5746,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -5758,7 +5754,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -5766,7 +5762,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -5774,7 +5770,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -5782,7 +5778,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B396">
         <v>0.5</v>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -5798,7 +5794,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -5806,7 +5802,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B399">
         <v>0.5</v>
@@ -5814,7 +5810,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B400">
         <v>0.5</v>
@@ -5822,7 +5818,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -5830,7 +5826,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -5838,7 +5834,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -5846,7 +5842,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -5854,7 +5850,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -5862,7 +5858,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -5870,7 +5866,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -5878,7 +5874,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -5886,7 +5882,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -5894,7 +5890,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -5902,7 +5898,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B411">
         <v>0.5</v>
@@ -5910,7 +5906,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B412">
         <v>0.5</v>
@@ -5918,7 +5914,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -5926,7 +5922,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -5934,7 +5930,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -5942,7 +5938,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B416">
         <v>0.5</v>
@@ -5950,7 +5946,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -5958,7 +5954,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -5966,7 +5962,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -5974,7 +5970,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -5982,7 +5978,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -5990,7 +5986,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -5998,7 +5994,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -6006,7 +6002,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -6014,7 +6010,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -6022,7 +6018,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -6030,7 +6026,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -6038,7 +6034,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -6046,7 +6042,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -6054,7 +6050,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -6062,7 +6058,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -6070,7 +6066,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -6078,7 +6074,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -6086,7 +6082,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -6094,7 +6090,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -6102,7 +6098,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -6110,7 +6106,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -6118,7 +6114,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -6126,7 +6122,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -6134,7 +6130,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -6142,7 +6138,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -6150,7 +6146,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -6158,7 +6154,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -6166,7 +6162,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -6174,7 +6170,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -6182,7 +6178,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -6190,7 +6186,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -6198,7 +6194,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -6206,7 +6202,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -6214,7 +6210,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -6222,7 +6218,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -6230,7 +6226,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B452">
         <v>0.5</v>
@@ -6238,7 +6234,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -6246,7 +6242,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -6254,7 +6250,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -6262,7 +6258,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B456">
         <v>0.5</v>
@@ -6270,7 +6266,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B457">
         <v>0.5</v>
@@ -6278,7 +6274,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -6286,7 +6282,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -6294,7 +6290,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460">
         <v>0.5</v>
@@ -6302,7 +6298,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -6310,7 +6306,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -6318,7 +6314,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -6326,7 +6322,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -6334,7 +6330,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B465">
         <v>0.5</v>
@@ -6342,7 +6338,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B466">
         <v>0.5</v>
@@ -6350,7 +6346,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -6358,7 +6354,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -6366,7 +6362,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -6374,7 +6370,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -6382,7 +6378,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -6390,7 +6386,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -6398,7 +6394,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -6406,7 +6402,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -6414,7 +6410,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -6422,7 +6418,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -6430,7 +6426,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -6438,7 +6434,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -6446,7 +6442,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -6454,7 +6450,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -6462,7 +6458,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -6470,7 +6466,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -6478,7 +6474,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -6486,7 +6482,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -6494,7 +6490,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -6502,7 +6498,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -6510,7 +6506,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -6518,7 +6514,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -6526,7 +6522,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -6534,7 +6530,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -6542,7 +6538,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -6550,7 +6546,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B492">
         <v>0.5</v>
@@ -6558,7 +6554,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -6566,7 +6562,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -6574,7 +6570,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -6582,7 +6578,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -6590,7 +6586,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -6598,7 +6594,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -6606,7 +6602,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -6614,7 +6610,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -6622,7 +6618,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -6630,7 +6626,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -6638,7 +6634,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -6646,7 +6642,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B504">
         <v>0</v>
@@ -6654,7 +6650,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -6662,7 +6658,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -6670,7 +6666,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -6678,7 +6674,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -6686,7 +6682,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -6694,7 +6690,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -6702,7 +6698,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -6710,7 +6706,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -6718,7 +6714,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -6726,7 +6722,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -6734,7 +6730,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -6742,7 +6738,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -6750,7 +6746,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -6758,7 +6754,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B518">
         <v>0.5</v>
@@ -6766,7 +6762,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B519">
         <v>0.5</v>
@@ -6774,7 +6770,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -6782,7 +6778,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -6790,7 +6786,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B522">
         <v>0.5</v>
@@ -6798,7 +6794,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -6806,7 +6802,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -6814,7 +6810,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B525">
         <v>0.5</v>
@@ -6822,7 +6818,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -6830,7 +6826,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -6838,7 +6834,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -6846,7 +6842,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -6854,7 +6850,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B530">
         <v>0.5</v>
@@ -6862,7 +6858,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B531">
         <v>0.5</v>
@@ -6870,7 +6866,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B532">
         <v>0.5</v>
@@ -6878,7 +6874,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B533">
         <v>0.5</v>
@@ -6886,7 +6882,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -6894,7 +6890,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -6902,7 +6898,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B536">
         <v>0.5</v>
@@ -6910,7 +6906,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B537">
         <v>0.5</v>
@@ -6918,7 +6914,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B538">
         <v>0.5</v>
@@ -6926,7 +6922,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B539">
         <v>0.5</v>
@@ -6934,7 +6930,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -6942,7 +6938,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -6950,7 +6946,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B542">
         <v>0</v>
@@ -6958,7 +6954,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B543">
         <v>0.5</v>
@@ -6966,7 +6962,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B544">
         <v>0</v>
@@ -6974,7 +6970,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -6982,7 +6978,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -6990,7 +6986,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B547">
         <v>0</v>
@@ -6998,7 +6994,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -7006,7 +7002,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B549">
         <v>0</v>
@@ -7014,7 +7010,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -7022,7 +7018,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -7030,7 +7026,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -7038,7 +7034,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -7046,7 +7042,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -7054,7 +7050,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -7062,7 +7058,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -7070,7 +7066,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -7078,7 +7074,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -7086,7 +7082,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B559">
         <v>0.5</v>
@@ -7094,7 +7090,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -7102,7 +7098,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -7110,7 +7106,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -7118,7 +7114,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -7126,7 +7122,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -7134,7 +7130,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B566">
         <v>0</v>
@@ -7150,7 +7146,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B567">
         <v>0</v>
@@ -7158,7 +7154,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -7166,7 +7162,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -7174,7 +7170,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -7182,7 +7178,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -7190,7 +7186,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -7198,7 +7194,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -7206,7 +7202,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B574">
         <v>0.5</v>
@@ -7214,7 +7210,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -7222,7 +7218,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -7230,7 +7226,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B577">
         <v>0</v>
@@ -7238,7 +7234,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -7246,7 +7242,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B579">
         <v>0</v>
@@ -7254,7 +7250,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -7262,7 +7258,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -7270,7 +7266,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -7278,7 +7274,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -7286,7 +7282,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B584">
         <v>0.5</v>
@@ -7294,7 +7290,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -7302,7 +7298,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B586">
         <v>0.5</v>
@@ -7310,7 +7306,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -7318,7 +7314,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B588">
         <v>0.5</v>
@@ -7326,7 +7322,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -7334,7 +7330,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -7342,7 +7338,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B591">
         <v>0.5</v>
@@ -7350,7 +7346,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -7358,7 +7354,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -7366,7 +7362,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -7374,7 +7370,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B595">
         <v>0.5</v>
@@ -7382,7 +7378,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -7390,7 +7386,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -7398,7 +7394,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B598">
         <v>0.5</v>
@@ -7406,7 +7402,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B599">
         <v>0</v>
@@ -7414,7 +7410,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B600">
         <v>0.5</v>
@@ -7422,7 +7418,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -7430,7 +7426,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B602">
         <v>0.5</v>
@@ -7438,7 +7434,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -7446,7 +7442,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B604">
         <v>0</v>
@@ -7454,7 +7450,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B605">
         <v>0</v>
@@ -7462,7 +7458,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B606">
         <v>0.5</v>
@@ -7470,7 +7466,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -7478,7 +7474,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -7486,7 +7482,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B609">
         <v>0.5</v>
@@ -7494,7 +7490,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -7502,7 +7498,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -7510,7 +7506,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B612">
         <v>0</v>
@@ -7518,7 +7514,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B613">
         <v>0.5</v>
@@ -7526,7 +7522,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B614">
         <v>1</v>
@@ -7534,7 +7530,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B615">
         <v>1</v>
@@ -7542,7 +7538,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -7550,7 +7546,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -7558,7 +7554,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B618">
         <v>0.5</v>
@@ -7566,7 +7562,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -7574,7 +7570,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B620">
         <v>1</v>
@@ -7582,7 +7578,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -7590,7 +7586,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -7598,7 +7594,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -7606,7 +7602,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -7614,7 +7610,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -7622,7 +7618,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -7630,7 +7626,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B627">
         <v>0.5</v>
@@ -7638,7 +7634,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -7646,7 +7642,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B629">
         <v>0</v>
@@ -7654,7 +7650,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -7662,7 +7658,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -7670,7 +7666,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B632">
         <v>1</v>
@@ -7678,7 +7674,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B633">
         <v>1</v>
@@ -7686,7 +7682,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -7694,7 +7690,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B635">
         <v>0.5</v>
@@ -7702,7 +7698,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -7710,7 +7706,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -7718,7 +7714,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -7726,7 +7722,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -7734,7 +7730,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -7742,7 +7738,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B641">
         <v>0.5</v>
@@ -7750,7 +7746,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -7758,7 +7754,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -7766,7 +7762,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -7774,7 +7770,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -7782,7 +7778,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -7790,7 +7786,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -7798,7 +7794,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -7806,7 +7802,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B649">
         <v>0.5</v>
@@ -7814,7 +7810,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B650">
         <v>0</v>
@@ -7822,7 +7818,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -7830,7 +7826,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -7838,7 +7834,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -7846,7 +7842,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -7854,7 +7850,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B655">
         <v>1</v>
@@ -7862,7 +7858,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B656">
         <v>1</v>
@@ -7870,7 +7866,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -7878,7 +7874,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -7886,7 +7882,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B659">
         <v>0</v>
@@ -7894,7 +7890,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -7902,7 +7898,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -7910,7 +7906,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -7918,7 +7914,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -7926,7 +7922,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B664">
         <v>1</v>
@@ -7934,7 +7930,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B665">
         <v>1</v>
@@ -7942,7 +7938,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B666">
         <v>0</v>
@@ -7950,7 +7946,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -7958,7 +7954,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -7966,7 +7962,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B669">
         <v>1</v>
@@ -7974,7 +7970,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B670">
         <v>1</v>
@@ -7982,7 +7978,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B671">
         <v>1</v>
@@ -7990,7 +7986,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B672">
         <v>1</v>
@@ -7998,7 +7994,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B673">
         <v>0.5</v>
@@ -8006,7 +8002,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B674">
         <v>1</v>
@@ -8014,7 +8010,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B675">
         <v>1</v>
@@ -8022,7 +8018,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B676">
         <v>1</v>
@@ -8030,7 +8026,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B677">
         <v>1</v>
@@ -8038,7 +8034,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B678">
         <v>1</v>
@@ -8046,7 +8042,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B679">
         <v>1</v>
@@ -8054,7 +8050,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -8062,7 +8058,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B681">
         <v>1</v>
@@ -8070,7 +8066,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B682">
         <v>1</v>
@@ -8078,7 +8074,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -8086,7 +8082,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -8094,7 +8090,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -8102,7 +8098,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -8110,7 +8106,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -8118,7 +8114,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B688">
         <v>1</v>
@@ -8126,7 +8122,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B689">
         <v>0</v>
@@ -8134,7 +8130,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -8142,7 +8138,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B691">
         <v>0.5</v>
@@ -8150,7 +8146,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -8158,7 +8154,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B693">
         <v>0</v>
@@ -8166,7 +8162,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -8174,7 +8170,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -8182,7 +8178,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B696">
         <v>0</v>
@@ -8190,7 +8186,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -8198,7 +8194,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -8206,7 +8202,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -8214,7 +8210,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -8222,7 +8218,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -8230,7 +8226,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -8238,7 +8234,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -8246,7 +8242,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B704">
         <v>1</v>
@@ -8254,7 +8250,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B705">
         <v>0.5</v>
@@ -8262,7 +8258,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B706">
         <v>1</v>
@@ -8270,7 +8266,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B707">
         <v>0.5</v>
@@ -8278,7 +8274,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -8286,7 +8282,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B709">
         <v>0</v>
@@ -8294,7 +8290,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B710">
         <v>0.5</v>
@@ -8302,7 +8298,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B711">
         <v>0</v>
@@ -8310,7 +8306,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -8318,7 +8314,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -8326,7 +8322,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -8334,7 +8330,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -8342,7 +8338,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -8350,7 +8346,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -8358,7 +8354,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -8366,7 +8362,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B719">
         <v>1</v>
@@ -8374,159 +8370,139 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
+        <v>719</v>
+      </c>
+      <c r="B720">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
         <v>720</v>
       </c>
-      <c r="B720">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A721" t="s">
+      <c r="B721">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
         <v>721</v>
       </c>
-      <c r="B721">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A722" t="s">
+      <c r="B722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
         <v>722</v>
       </c>
-      <c r="B722">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A723" t="s">
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
         <v>723</v>
       </c>
-      <c r="B723">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A724" t="s">
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
         <v>724</v>
       </c>
-      <c r="B724">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A725" t="s">
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
         <v>725</v>
       </c>
-      <c r="B725">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A726" t="s">
+      <c r="B726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
         <v>726</v>
       </c>
-      <c r="B726">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A727" t="s">
+      <c r="B727">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
         <v>727</v>
       </c>
-      <c r="B727">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A728" t="s">
+      <c r="B728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
         <v>728</v>
       </c>
-      <c r="B728">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A729" t="s">
-        <v>729</v>
-      </c>
       <c r="B729">
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C730" s="3"/>
-      <c r="D730" s="4"/>
-      <c r="E730" s="4"/>
-      <c r="F730" s="4"/>
-      <c r="G730" s="3"/>
-    </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C731" s="3"/>
-      <c r="D731" s="4"/>
-      <c r="E731" s="4"/>
-      <c r="F731" s="4"/>
-      <c r="G731" s="3"/>
-    </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C732" s="3"/>
-      <c r="D732" s="4"/>
-      <c r="E732" s="4"/>
-      <c r="F732" s="4"/>
-      <c r="G732" s="3"/>
-    </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C733" s="3"/>
-      <c r="D733" s="4"/>
-      <c r="E733" s="4"/>
-      <c r="F733" s="4"/>
-      <c r="G733" s="3"/>
-    </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C734" s="3"/>
-      <c r="D734" s="4"/>
-      <c r="E734" s="4"/>
-      <c r="F734" s="4"/>
-      <c r="G734" s="3"/>
-    </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C735" s="3"/>
-      <c r="D735" s="3"/>
-      <c r="E735" s="3"/>
-      <c r="F735" s="4"/>
-      <c r="G735" s="3"/>
-    </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C736" s="3"/>
-      <c r="D736" s="4"/>
-      <c r="E736" s="3"/>
-      <c r="F736" s="4"/>
-      <c r="G736" s="3"/>
-    </row>
-    <row r="737" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C737" s="3"/>
-      <c r="D737" s="4"/>
-      <c r="E737" s="3"/>
-      <c r="F737" s="4"/>
-      <c r="G737" s="3"/>
-    </row>
-    <row r="738" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D730" s="2"/>
+      <c r="E730" s="2"/>
+      <c r="F730" s="2"/>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D731" s="2"/>
+      <c r="E731" s="2"/>
+      <c r="F731" s="2"/>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D732" s="2"/>
+      <c r="E732" s="2"/>
+      <c r="F732" s="2"/>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D733" s="2"/>
+      <c r="E733" s="2"/>
+      <c r="F733" s="2"/>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D734" s="2"/>
+      <c r="E734" s="2"/>
+      <c r="F734" s="2"/>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F735" s="2"/>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D736" s="2"/>
+      <c r="F736" s="2"/>
+    </row>
+    <row r="737" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D737" s="2"/>
+      <c r="F737" s="2"/>
+    </row>
+    <row r="738" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F738" s="2"/>
     </row>
-    <row r="739" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="739" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F739" s="2"/>
     </row>
-    <row r="740" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="740" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F740" s="2"/>
     </row>
-    <row r="741" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="741" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F741" s="2"/>
     </row>
-    <row r="742" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="742" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F742" s="2"/>
     </row>
-    <row r="743" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="743" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F743" s="2"/>
     </row>
-    <row r="744" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="744" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F744" s="2"/>
     </row>
   </sheetData>
